--- a/wwwroot/Reports/software_analogReport_template.xlsx
+++ b/wwwroot/Reports/software_analogReport_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\1Курс 3_2\asp\SoftwareCatalogDatabaseASP\wwwroot\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5591C7-6B2D-40DA-862D-37EC94CB801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5306F4-1C14-4EAD-A60B-A8A89C941839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Описание</t>
-  </si>
-  <si>
-    <t>Image</t>
   </si>
   <si>
     <t>Ссылка</t>
@@ -382,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,19 +392,19 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
     <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -418,11 +415,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,14 +447,11 @@
       </c>
       <c r="J2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
